--- a/evakuu.xlsx
+++ b/evakuu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="9120" windowHeight="3165"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="373">
   <si>
     <t>overlord_(maruyama)</t>
   </si>
@@ -1135,28 +1135,14 @@
   </si>
   <si>
     <t>niji_(rudduf232)</t>
-  </si>
-  <si>
-    <t>%searchtag%\%rating% - %id% - %artist% - %copyright% - %character</t>
-  </si>
-  <si>
-    <t>version 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1189,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,12 +1496,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>270</v>
@@ -1526,7 +1518,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>270</v>
@@ -1537,7 +1529,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>270</v>
@@ -1548,43 +1540,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>270</v>
@@ -1595,7 +1587,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>270</v>
@@ -1606,7 +1598,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>270</v>
@@ -1617,7 +1609,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>270</v>
@@ -1628,7 +1620,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>270</v>
@@ -1639,7 +1631,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>270</v>
@@ -1650,7 +1642,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>368</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>270</v>
@@ -1661,7 +1653,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>270</v>
@@ -1672,7 +1664,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>270</v>
@@ -1683,7 +1675,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>270</v>
@@ -1694,7 +1686,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>270</v>
@@ -1705,7 +1697,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>270</v>
@@ -1716,7 +1708,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>270</v>
@@ -1727,18 +1719,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>270</v>
@@ -1746,24 +1741,21 @@
       <c r="C22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>270</v>
@@ -1774,32 +1766,32 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>270</v>
@@ -1810,7 +1802,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>270</v>
@@ -1821,7 +1813,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>270</v>
@@ -1832,7 +1824,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>270</v>
@@ -1843,7 +1835,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>270</v>
@@ -1854,7 +1846,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>270</v>
@@ -1865,7 +1857,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>270</v>
@@ -1876,7 +1868,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>270</v>
@@ -1887,7 +1879,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>270</v>
@@ -1898,7 +1890,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>270</v>
@@ -1909,7 +1901,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>270</v>
@@ -1920,7 +1912,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>270</v>
@@ -1931,7 +1923,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>270</v>
@@ -1942,29 +1934,29 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>270</v>
@@ -1975,7 +1967,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>270</v>
@@ -1986,7 +1978,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>270</v>
@@ -1997,7 +1989,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>270</v>
@@ -2008,32 +2000,32 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>270</v>
@@ -2044,7 +2036,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>270</v>
@@ -2055,7 +2047,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>270</v>
@@ -2066,7 +2058,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>270</v>
@@ -2077,7 +2069,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>270</v>
@@ -2088,7 +2080,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>270</v>
@@ -2099,32 +2091,32 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>270</v>
@@ -2135,7 +2127,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>270</v>
@@ -2146,7 +2138,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>270</v>
@@ -2157,7 +2149,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>270</v>
@@ -2168,7 +2160,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>270</v>
@@ -2179,7 +2171,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>270</v>
@@ -2190,29 +2182,29 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>270</v>
@@ -2223,7 +2215,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>270</v>
@@ -2234,7 +2226,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>270</v>
@@ -2245,7 +2237,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>270</v>
@@ -2256,7 +2248,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>270</v>
@@ -2267,7 +2259,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>270</v>
@@ -2278,7 +2270,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>270</v>
@@ -2289,7 +2281,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>270</v>
@@ -2300,7 +2292,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>270</v>
@@ -2311,7 +2303,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>270</v>
@@ -2322,7 +2314,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>270</v>
@@ -2333,7 +2325,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>270</v>
@@ -2344,18 +2336,18 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>270</v>
@@ -2366,40 +2358,40 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>270</v>
@@ -2410,7 +2402,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>270</v>
@@ -2421,7 +2413,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>366</v>
+        <v>222</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>270</v>
@@ -2432,7 +2424,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>270</v>
@@ -2443,7 +2435,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>270</v>
@@ -2454,7 +2446,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>270</v>
@@ -2465,7 +2457,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>270</v>
@@ -2476,7 +2468,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>270</v>
@@ -2487,7 +2479,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>270</v>
@@ -2498,7 +2490,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>270</v>
@@ -2509,7 +2501,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>270</v>
@@ -2520,7 +2512,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>270</v>
@@ -2531,7 +2523,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>270</v>
@@ -2542,7 +2534,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>331</v>
+        <v>174</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>270</v>
@@ -2553,29 +2545,29 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>270</v>
@@ -2586,7 +2578,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>270</v>
@@ -2597,7 +2589,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>270</v>
@@ -2608,7 +2600,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>270</v>
@@ -2619,7 +2611,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>270</v>
@@ -2630,7 +2622,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>270</v>
@@ -2641,7 +2633,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>270</v>
@@ -2652,7 +2644,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>270</v>
@@ -2663,7 +2655,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>270</v>
@@ -2674,7 +2666,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>270</v>
@@ -2685,7 +2677,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>270</v>
@@ -2696,7 +2688,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>270</v>
@@ -2707,7 +2699,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>270</v>
@@ -2718,7 +2710,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>270</v>
@@ -2729,7 +2721,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>270</v>
@@ -2740,7 +2732,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>270</v>
@@ -2751,7 +2743,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>270</v>
@@ -2762,7 +2754,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>270</v>
@@ -2773,7 +2765,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>270</v>
@@ -2784,7 +2776,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>270</v>
@@ -2795,7 +2787,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>270</v>
@@ -2806,7 +2798,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>270</v>
@@ -2817,7 +2809,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>270</v>
@@ -2828,7 +2820,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>270</v>
@@ -2850,7 +2842,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>270</v>
@@ -2861,7 +2853,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>270</v>
@@ -2872,7 +2864,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>270</v>
@@ -2883,7 +2875,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>270</v>
@@ -2894,7 +2886,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>270</v>
@@ -2905,7 +2897,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>270</v>
@@ -2916,7 +2908,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>270</v>
@@ -2927,7 +2919,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>270</v>
@@ -2938,7 +2930,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>270</v>
@@ -2949,7 +2941,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>270</v>
@@ -2960,7 +2952,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>270</v>
@@ -2971,7 +2963,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>270</v>
@@ -2982,7 +2974,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>270</v>
@@ -2993,7 +2985,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>270</v>
@@ -3004,7 +2996,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>270</v>
@@ -3026,7 +3018,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>339</v>
+        <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>270</v>
@@ -3037,7 +3029,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>270</v>
@@ -3048,7 +3040,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>270</v>
@@ -3059,7 +3051,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>270</v>
@@ -3070,7 +3062,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>270</v>
@@ -3081,7 +3073,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>270</v>
@@ -3092,7 +3084,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>292</v>
+        <v>183</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>270</v>
@@ -3103,7 +3095,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>270</v>
@@ -3114,7 +3106,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>270</v>
@@ -3125,7 +3117,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>270</v>
@@ -3136,7 +3128,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>335</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>270</v>
@@ -3147,7 +3139,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>270</v>
@@ -3158,7 +3150,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>270</v>
@@ -3169,7 +3161,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>270</v>
@@ -3180,7 +3172,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>270</v>
@@ -3191,7 +3183,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>270</v>
@@ -3202,7 +3194,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>270</v>
@@ -3213,7 +3205,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>270</v>
@@ -3224,7 +3216,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>270</v>
@@ -3235,7 +3227,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>270</v>
@@ -3246,7 +3238,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>270</v>
@@ -3257,7 +3249,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>270</v>
@@ -3268,7 +3260,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>270</v>
@@ -3279,7 +3271,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>270</v>
@@ -3290,7 +3282,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>270</v>
@@ -3301,7 +3293,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>270</v>
@@ -3312,7 +3304,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>270</v>
@@ -3323,7 +3315,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>270</v>
@@ -3334,7 +3326,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>270</v>
@@ -3345,7 +3337,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>270</v>
@@ -3356,7 +3348,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>270</v>
@@ -3367,7 +3359,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>270</v>
@@ -3378,7 +3370,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>270</v>
@@ -3389,7 +3381,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>101</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>270</v>
@@ -3399,8 +3391,8 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>101</v>
+      <c r="A172" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>270</v>
@@ -3410,8 +3402,8 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>351</v>
+      <c r="A173" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>270</v>
@@ -3422,7 +3414,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>270</v>
@@ -3433,7 +3425,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>270</v>
@@ -3444,7 +3436,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>270</v>
@@ -3455,7 +3447,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>270</v>
@@ -3466,7 +3458,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>270</v>
@@ -3477,7 +3469,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>270</v>
@@ -3488,7 +3480,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>270</v>
@@ -3499,7 +3491,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>270</v>
@@ -3510,7 +3502,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>96</v>
+        <v>364</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>270</v>
@@ -3521,7 +3513,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>364</v>
+        <v>145</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>270</v>
@@ -3532,7 +3524,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>270</v>
@@ -3543,7 +3535,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>270</v>
@@ -3554,7 +3546,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>270</v>
@@ -3565,7 +3557,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>270</v>
@@ -3576,7 +3568,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>349</v>
+        <v>203</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>270</v>
@@ -3587,7 +3579,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>270</v>
@@ -3598,7 +3590,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>270</v>
@@ -3609,7 +3601,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>270</v>
@@ -3620,7 +3612,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>270</v>
@@ -3631,7 +3623,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>270</v>
@@ -3642,7 +3634,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>270</v>
@@ -3653,10 +3645,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>272</v>
@@ -3664,10 +3656,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>272</v>
@@ -3675,7 +3667,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>270</v>
@@ -3686,7 +3678,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>270</v>
@@ -3697,7 +3689,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>270</v>
@@ -3708,7 +3700,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>270</v>
@@ -3719,7 +3711,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>270</v>
@@ -3730,7 +3722,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>270</v>
@@ -3741,29 +3733,29 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>270</v>
@@ -3774,7 +3766,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>270</v>
@@ -3785,7 +3777,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>270</v>
@@ -3796,7 +3788,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>270</v>
@@ -3807,7 +3799,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>270</v>
@@ -3818,7 +3810,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>270</v>
@@ -3829,7 +3821,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>270</v>
@@ -3840,7 +3832,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>270</v>
@@ -3851,7 +3843,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>270</v>
@@ -3862,7 +3854,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>270</v>
@@ -3873,7 +3865,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>270</v>
@@ -3884,7 +3876,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>270</v>
@@ -3895,7 +3887,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>270</v>
@@ -3917,7 +3909,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>270</v>
@@ -3928,7 +3920,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>270</v>
@@ -3939,7 +3931,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>372</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>270</v>
@@ -3950,7 +3942,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>372</v>
+        <v>179</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>270</v>
@@ -3961,7 +3953,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>270</v>
@@ -3972,7 +3964,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>270</v>
@@ -3983,7 +3975,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>270</v>
@@ -3994,7 +3986,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>270</v>
@@ -4005,7 +3997,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>270</v>
@@ -4016,7 +4008,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>270</v>
@@ -4027,7 +4019,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>270</v>
@@ -4038,7 +4030,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>270</v>
@@ -4049,7 +4041,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>270</v>
@@ -4060,7 +4052,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>270</v>
@@ -4071,7 +4063,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>270</v>
@@ -4082,7 +4074,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>270</v>
@@ -4093,7 +4085,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>270</v>
@@ -4104,7 +4096,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>270</v>
@@ -4115,7 +4107,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>270</v>
@@ -4126,7 +4118,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>270</v>
@@ -4137,7 +4129,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>270</v>
@@ -4148,7 +4140,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>270</v>
@@ -4159,7 +4151,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>270</v>
@@ -4170,51 +4162,51 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>270</v>
@@ -4225,29 +4217,29 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>306</v>
+        <v>146</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>270</v>
@@ -4258,7 +4250,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>270</v>
@@ -4269,7 +4261,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>270</v>
@@ -4280,7 +4272,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>270</v>
@@ -4291,7 +4283,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>270</v>
@@ -4302,7 +4294,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>270</v>
@@ -4313,7 +4305,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>270</v>
@@ -4324,7 +4316,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>270</v>
@@ -4335,7 +4327,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>270</v>
@@ -4346,18 +4338,24 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>270</v>
@@ -4366,29 +4364,23 @@
         <v>276</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>270</v>
@@ -4399,7 +4391,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>270</v>
@@ -4410,7 +4402,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>270</v>
@@ -4421,7 +4413,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>270</v>
@@ -4432,7 +4424,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>270</v>
@@ -4443,7 +4435,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>270</v>
@@ -4454,7 +4446,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>270</v>
@@ -4465,7 +4457,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>270</v>
@@ -4476,35 +4468,35 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>270</v>
@@ -4515,7 +4507,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>270</v>
@@ -4526,7 +4518,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>270</v>
@@ -4537,7 +4529,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>270</v>
@@ -4548,7 +4540,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>270</v>
@@ -4559,7 +4551,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>270</v>
@@ -4570,7 +4562,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>270</v>
@@ -4581,7 +4573,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>270</v>
@@ -4592,29 +4584,29 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>270</v>
@@ -4625,7 +4617,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>270</v>
@@ -4636,7 +4628,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>270</v>
@@ -4647,7 +4639,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>270</v>
@@ -4658,7 +4650,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>270</v>
@@ -4669,7 +4661,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>270</v>
@@ -4680,7 +4672,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>270</v>
@@ -4691,7 +4683,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>270</v>
@@ -4702,29 +4694,29 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>270</v>
@@ -4735,32 +4727,32 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>270</v>
@@ -4771,7 +4763,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>270</v>
@@ -4782,7 +4774,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>353</v>
+        <v>140</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>270</v>
@@ -4793,7 +4785,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>270</v>
@@ -4804,7 +4796,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>270</v>
@@ -4815,7 +4807,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>270</v>
@@ -4826,7 +4818,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>270</v>
@@ -4837,29 +4829,29 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>270</v>
@@ -4870,7 +4862,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>270</v>
@@ -4881,7 +4873,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>270</v>
@@ -4892,7 +4884,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>270</v>
@@ -4903,7 +4895,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>270</v>
@@ -4914,32 +4906,32 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>277</v>
+        <v>7</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>270</v>
@@ -4950,7 +4942,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>270</v>
@@ -4961,7 +4953,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>270</v>
@@ -4972,7 +4964,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>270</v>
@@ -4983,7 +4975,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>270</v>
@@ -4994,7 +4986,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>270</v>
@@ -5005,7 +4997,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>270</v>
@@ -5016,7 +5008,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>270</v>
@@ -5027,7 +5019,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>270</v>
@@ -5038,7 +5030,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>270</v>
@@ -5049,7 +5041,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>270</v>
@@ -5058,9 +5050,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>270</v>
@@ -5069,9 +5061,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>270</v>
@@ -5080,9 +5072,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>270</v>
@@ -5091,9 +5083,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>270</v>
@@ -5102,9 +5094,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>270</v>
@@ -5113,9 +5105,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>270</v>
@@ -5124,9 +5116,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>270</v>
@@ -5135,9 +5127,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>270</v>
@@ -5146,9 +5138,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>270</v>
@@ -5157,9 +5149,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>270</v>
@@ -5168,9 +5160,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>270</v>
@@ -5179,9 +5171,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>270</v>
@@ -5190,9 +5182,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>270</v>
@@ -5201,9 +5193,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>270</v>
@@ -5212,9 +5204,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>270</v>
@@ -5223,9 +5215,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>270</v>
@@ -5233,10 +5225,13 @@
       <c r="C336" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D336" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>270</v>
@@ -5244,13 +5239,10 @@
       <c r="C337" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>270</v>
@@ -5259,9 +5251,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>270</v>
@@ -5270,9 +5262,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>270</v>
@@ -5281,9 +5273,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>270</v>
@@ -5292,9 +5284,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>270</v>
@@ -5303,9 +5295,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>270</v>
@@ -5314,9 +5306,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>270</v>
@@ -5325,9 +5317,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>270</v>
@@ -5336,9 +5328,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>270</v>
@@ -5347,9 +5339,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>270</v>
@@ -5358,9 +5350,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>270</v>
@@ -5369,31 +5361,31 @@
         <v>272</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>270</v>
@@ -5402,9 +5394,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>270</v>
@@ -5415,7 +5407,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>270</v>
@@ -5426,7 +5418,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>270</v>
@@ -5437,7 +5429,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>270</v>
@@ -5448,7 +5440,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>270</v>
@@ -5459,7 +5451,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>270</v>
@@ -5470,7 +5462,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>270</v>
@@ -5481,7 +5473,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>270</v>
@@ -5492,7 +5484,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>270</v>
@@ -5503,29 +5495,13 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/evakuu.xlsx
+++ b/evakuu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="375">
   <si>
     <t>overlord_(maruyama)</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>niji_(rudduf232)</t>
+  </si>
+  <si>
+    <t>remilia_scarlet</t>
+  </si>
+  <si>
+    <t>touhou</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,18 +4441,21 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>270</v>
@@ -4457,7 +4466,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>270</v>
@@ -4468,35 +4477,35 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>270</v>
@@ -4507,7 +4516,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>270</v>
@@ -4518,7 +4527,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>270</v>
@@ -4529,7 +4538,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>270</v>
@@ -4540,7 +4549,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>270</v>
@@ -4551,7 +4560,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>270</v>
@@ -4562,7 +4571,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>270</v>
@@ -4573,7 +4582,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>270</v>
@@ -4584,29 +4593,29 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>270</v>
@@ -4617,7 +4626,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>270</v>
@@ -4628,7 +4637,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>270</v>
@@ -4639,7 +4648,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>270</v>
@@ -4650,7 +4659,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>270</v>
@@ -4661,7 +4670,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>270</v>
@@ -4672,7 +4681,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>270</v>
@@ -4683,7 +4692,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>270</v>
@@ -4694,29 +4703,29 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>270</v>
@@ -4727,32 +4736,32 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>270</v>
@@ -4763,7 +4772,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>270</v>
@@ -4774,7 +4783,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>270</v>
@@ -4785,7 +4794,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>270</v>
@@ -4796,7 +4805,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>270</v>
@@ -4807,7 +4816,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>270</v>
@@ -4818,7 +4827,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>270</v>
@@ -4829,29 +4838,29 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>270</v>
@@ -4862,7 +4871,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>270</v>
@@ -4873,7 +4882,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>270</v>
@@ -4884,7 +4893,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>270</v>
@@ -4895,7 +4904,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>270</v>
@@ -4906,32 +4915,32 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>270</v>
@@ -4942,7 +4951,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>270</v>
@@ -4953,7 +4962,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>270</v>
@@ -4964,7 +4973,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>270</v>
@@ -4975,7 +4984,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>270</v>
@@ -4986,7 +4995,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>270</v>
@@ -4997,7 +5006,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>270</v>
@@ -5008,7 +5017,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>270</v>
@@ -5019,7 +5028,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>270</v>
@@ -5030,7 +5039,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>270</v>
@@ -5041,362 +5050,362 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="B321" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="B323" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="B325" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="B326" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="B327" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="B329" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D336" s="1" t="s">
+      <c r="B337" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C349" s="1" t="s">
+      <c r="B350" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>270</v>
@@ -5407,7 +5416,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>270</v>
@@ -5418,7 +5427,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>270</v>
@@ -5429,7 +5438,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>270</v>
@@ -5440,7 +5449,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>270</v>
@@ -5451,7 +5460,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>270</v>
@@ -5462,7 +5471,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>270</v>
@@ -5473,7 +5482,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>270</v>
@@ -5484,7 +5493,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>270</v>
@@ -5495,12 +5504,23 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C361" s="1" t="s">
+      <c r="B362" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>272</v>
       </c>
     </row>

--- a/evakuu.xlsx
+++ b/evakuu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="450">
   <si>
     <t>overlord_(maruyama)</t>
   </si>
@@ -639,9 +639,6 @@
     <t>arcueid_brunestud</t>
   </si>
   <si>
-    <t>chimunge</t>
-  </si>
-  <si>
     <t>gochuumon_wa_usagi_desu_ka?</t>
   </si>
   <si>
@@ -960,9 +957,6 @@
     <t>ccaw</t>
   </si>
   <si>
-    <t>b3b</t>
-  </si>
-  <si>
     <t>okakan</t>
   </si>
   <si>
@@ -1135,6 +1129,243 @@
   </si>
   <si>
     <t>niji_(rudduf232)</t>
+  </si>
+  <si>
+    <t>liu_guniang</t>
+  </si>
+  <si>
+    <t>pixiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群青 </t>
+  </si>
+  <si>
+    <t>ナズナ</t>
+  </si>
+  <si>
+    <t>fetishist</t>
+  </si>
+  <si>
+    <t>hamada_(super_tachioyogi_kyousou)</t>
+  </si>
+  <si>
+    <t>senaya_eru</t>
+  </si>
+  <si>
+    <t>dora_v_nu</t>
+  </si>
+  <si>
+    <t>ishii_hisao</t>
+  </si>
+  <si>
+    <t>noccu</t>
+  </si>
+  <si>
+    <t>Pixiv Fantasia</t>
+  </si>
+  <si>
+    <t>moryapanima</t>
+  </si>
+  <si>
+    <t>keemu_(occhoko-cho)</t>
+  </si>
+  <si>
+    <t>anastasia_(idolmaster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitta_minami </t>
+  </si>
+  <si>
+    <t>idolmaster</t>
+  </si>
+  <si>
+    <t>takagaki_kaede</t>
+  </si>
+  <si>
+    <t>yasukura_(shibu11)</t>
+  </si>
+  <si>
+    <t>sam_(new_bee)</t>
+  </si>
+  <si>
+    <t>5240mosu</t>
+  </si>
+  <si>
+    <t>ama_mitsuki</t>
+  </si>
+  <si>
+    <t>udk</t>
+  </si>
+  <si>
+    <t>shutsuri</t>
+  </si>
+  <si>
+    <t>tanaka_takayuki</t>
+  </si>
+  <si>
+    <t>puma_(hyuma1219)</t>
+  </si>
+  <si>
+    <t>amagai_tarou</t>
+  </si>
+  <si>
+    <t>shocchan_(sanymph)</t>
+  </si>
+  <si>
+    <t>erjung</t>
+  </si>
+  <si>
+    <t>ryuinu</t>
+  </si>
+  <si>
+    <t>gejigejier</t>
+  </si>
+  <si>
+    <t>hk_(hk)</t>
+  </si>
+  <si>
+    <t>shironeko_project</t>
+  </si>
+  <si>
+    <t>aki_(akikaze_asparagus)</t>
+  </si>
+  <si>
+    <t>zenyu</t>
+  </si>
+  <si>
+    <t>puuakachan</t>
+  </si>
+  <si>
+    <t>ootsuka_shin'ichirou</t>
+  </si>
+  <si>
+    <t>ohara_tometa</t>
+  </si>
+  <si>
+    <t>qp:flapper</t>
+  </si>
+  <si>
+    <t>rie_(reverie)</t>
+  </si>
+  <si>
+    <t>mafuyu_(chibi21)</t>
+  </si>
+  <si>
+    <t>hieung</t>
+  </si>
+  <si>
+    <t>riuichi</t>
+  </si>
+  <si>
+    <t>araragimura_udonya</t>
+  </si>
+  <si>
+    <t>tahya</t>
+  </si>
+  <si>
+    <t>manekohime_wenzudei</t>
+  </si>
+  <si>
+    <t>haru_(hiyori-kohal)</t>
+  </si>
+  <si>
+    <t>ctrlz77</t>
+  </si>
+  <si>
+    <t>hatori_piyoko</t>
+  </si>
+  <si>
+    <t>demstouts</t>
+  </si>
+  <si>
+    <t>qian_wu_atai</t>
+  </si>
+  <si>
+    <t>sylphine</t>
+  </si>
+  <si>
+    <t>miko_92</t>
+  </si>
+  <si>
+    <t>horosuke_(toot08)</t>
+  </si>
+  <si>
+    <t>chiyingzai</t>
+  </si>
+  <si>
+    <t>d.y.x.</t>
+  </si>
+  <si>
+    <t>azumi_akitake</t>
+  </si>
+  <si>
+    <t>kikuzuki_(kantai_collection)</t>
+  </si>
+  <si>
+    <t>gintarou_(kurousagi108)</t>
+  </si>
+  <si>
+    <t>suginoji</t>
+  </si>
+  <si>
+    <t>kingchenxi</t>
+  </si>
+  <si>
+    <t>throtem</t>
+  </si>
+  <si>
+    <t>isshiki_(ffmania7)</t>
+  </si>
+  <si>
+    <t>murakumo_(kantai_collection)</t>
+  </si>
+  <si>
+    <t>rustle</t>
+  </si>
+  <si>
+    <t>eve_(elsword)</t>
+  </si>
+  <si>
+    <t>kuro_(kuronell)</t>
+  </si>
+  <si>
+    <t>arano_oki</t>
+  </si>
+  <si>
+    <t>tsuedzu</t>
+  </si>
+  <si>
+    <t>sumisuzu</t>
+  </si>
+  <si>
+    <t>loussier666</t>
+  </si>
+  <si>
+    <t>neruhi</t>
+  </si>
+  <si>
+    <t>nyori</t>
+  </si>
+  <si>
+    <t>tsyn</t>
+  </si>
+  <si>
+    <t>kou_mashiro</t>
+  </si>
+  <si>
+    <t>lasa_(lasa1116)</t>
+  </si>
+  <si>
+    <t>senbei_(senbe_i)</t>
+  </si>
+  <si>
+    <t>ichikawa_feesu</t>
+  </si>
+  <si>
+    <t>hinauri_(nurupon)</t>
+  </si>
+  <si>
+    <t>akai_ringo_(eveyuno)</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1401,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,179 +1732,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>201</v>
+      <c r="A1" s="1">
+        <v>151716</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>350</v>
+      <c r="A2" s="1">
+        <v>310779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>299</v>
+      <c r="A3" s="1">
+        <v>504935</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>329</v>
+      <c r="A4" s="2">
+        <v>2819177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
+      <c r="A5" s="1">
+        <v>4077126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6" s="1">
+        <v>4262983</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>252</v>
+      <c r="A7" s="1">
+        <v>5359885</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>151</v>
+      <c r="A8" s="1">
+        <v>7609394</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>296</v>
+      <c r="A9" s="1">
+        <v>9361618</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>269</v>
+      <c r="A10" s="1">
+        <v>14096433</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>272</v>
@@ -1675,247 +1915,250 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>245</v>
+      <c r="A30" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>272</v>
@@ -1923,225 +2166,222 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>426</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>272</v>
@@ -2149,274 +2389,280 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>272</v>
@@ -2424,208 +2670,208 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>322</v>
+        <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>435</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>272</v>
@@ -2633,21 +2879,21 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>428</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>272</v>
@@ -2655,1649 +2901,1652 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>91</v>
+        <v>418</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>339</v>
+        <v>120</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>217</v>
+        <v>379</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>236</v>
+        <v>432</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>351</v>
+      <c r="A172" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>360</v>
+        <v>211</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>121</v>
+        <v>444</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>117</v>
+        <v>445</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>111</v>
+        <v>371</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>122</v>
+        <v>440</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>338</v>
+      <c r="A219" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>342</v>
+        <v>51</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>272</v>
@@ -4305,1035 +4554,1029 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>214</v>
+        <v>442</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="B313" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>150</v>
+        <v>409</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>272</v>
@@ -5341,172 +5584,1122 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="B442" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="B444" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>272</v>
+      <c r="B446" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E361">
-    <sortCondition ref="A362"/>
+  <sortState ref="A1:E447">
+    <sortCondition ref="A448"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
